--- a/biology/Botanique/Sucre_de_canne_complet/Sucre_de_canne_complet.xlsx
+++ b/biology/Botanique/Sucre_de_canne_complet/Sucre_de_canne_complet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sucre de canne complet est un sucre de canne non raffiné et totalement pourvu de sa mélasse, il est le résultat direct du pressage de la canne, obtenu après évaporation de l’eau. 
 Ce sucre est connu sous de nombreux noms, par sa longue histoire : gur ou jaggery en Asie du Sud, chancaca, panela, piloncillo ou rapadura au Mexique et en Amérique du Sud. 
